--- a/data/case1/20/Qlm1_14.xlsx
+++ b/data/case1/20/Qlm1_14.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.23334074964659379</v>
+        <v>-0.20466831670470498</v>
       </c>
       <c r="B1" s="0">
-        <v>0.23316078997447676</v>
+        <v>0.20454111920705742</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.16295832342400018</v>
+        <v>-0.18243722887989744</v>
       </c>
       <c r="B2" s="0">
-        <v>0.16253892942337078</v>
+        <v>0.18191439642029472</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.11283652680294409</v>
+        <v>-0.13221075427419393</v>
       </c>
       <c r="B3" s="0">
-        <v>0.11252583108458758</v>
+        <v>0.13189993075244821</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.10452583115193903</v>
+        <v>-0.1238999308102624</v>
       </c>
       <c r="B4" s="0">
-        <v>0.10406136630138185</v>
+        <v>0.12328326839501003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.10106136633993135</v>
+        <v>-0.1202832684299624</v>
       </c>
       <c r="B5" s="0">
-        <v>0.099479987500558309</v>
+        <v>0.11816579753364032</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.035272118415120346</v>
+        <v>-0.017595135142698837</v>
       </c>
       <c r="B6" s="0">
-        <v>0.034947957767796467</v>
+        <v>0.01745280793681836</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.024947957864491332</v>
+        <v>-0.0074528080214046888</v>
       </c>
       <c r="B7" s="0">
-        <v>0.024878760610616446</v>
+        <v>0.0074315687641841599</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.014878760709300831</v>
+        <v>0.011695910230349327</v>
       </c>
       <c r="B8" s="0">
-        <v>0.014781081713410416</v>
+        <v>-0.01170393668149794</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.012781081761208402</v>
+        <v>0.013703936640774295</v>
       </c>
       <c r="B9" s="0">
-        <v>0.012709127120464903</v>
+        <v>-0.013719468784762157</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.010709127169938881</v>
+        <v>0.01571946874517316</v>
       </c>
       <c r="B10" s="0">
-        <v>0.010706275304512403</v>
+        <v>-0.015720402735226457</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0077062753606158552</v>
+        <v>-0.0079458345732694724</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0077012195484869039</v>
+        <v>0.007945667243447474</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020861004409967521</v>
+        <v>-0.0044456672913328887</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020668681726140559</v>
+        <v>0.0044441584678138746</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017168681789812901</v>
+        <v>-0.00094415851635343273</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017081198581123225</v>
+        <v>0.00094287572773321671</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090811986756511587</v>
+        <v>-0.0090786694607558616</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090527353972653657</v>
+        <v>0.0090510661350284849</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080527354462285317</v>
+        <v>-0.0080510661706076903</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080343609478035205</v>
+        <v>0.0080332434802166119</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060343610040591855</v>
+        <v>-0.0060332435218155567</v>
       </c>
       <c r="B16" s="0">
-        <v>0.006003385697943564</v>
+        <v>0.0060033210398859893</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040033857551993179</v>
+        <v>-0.0040033210823118281</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999292428257</v>
+        <v>0.0039999999464530589</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.064202466591989804</v>
+        <v>-0.016103890361190309</v>
       </c>
       <c r="B18" s="0">
-        <v>0.064072308006647205</v>
+        <v>0.016091285556210977</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.01209147318387771</v>
+        <v>-0.012091285579486577</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016525758632657</v>
+        <v>0.012016575252087769</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080165257899000864</v>
+        <v>-0.0080165752770273713</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056582963798917</v>
+        <v>0.0080056326794704091</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056583279692859</v>
+        <v>-0.0040056327046933404</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999681636922</v>
+        <v>0.0039999999745612413</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045702402657202157</v>
+        <v>-0.045703642177837622</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045492091109050392</v>
+        <v>0.045492872195074696</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040492091154443521</v>
+        <v>-0.040492872234080046</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097612351918777</v>
+        <v>0.040097790863971916</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097612500117101</v>
+        <v>-0.020097790987785302</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999849919625</v>
+        <v>0.019999999874558583</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.062207869128377169</v>
+        <v>-0.15486813418189271</v>
       </c>
       <c r="B25" s="0">
-        <v>0.062153122527224269</v>
+        <v>0.15454399639217975</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.059653122574614414</v>
+        <v>-0.094605589169219684</v>
       </c>
       <c r="B26" s="0">
-        <v>0.059585124909567355</v>
+        <v>0.094446605059534505</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.057085124958826228</v>
+        <v>-0.091946605108276902</v>
       </c>
       <c r="B27" s="0">
-        <v>0.056696513160212625</v>
+        <v>0.091004316302895294</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.054696513213587039</v>
+        <v>-0.089004316358983537</v>
       </c>
       <c r="B28" s="0">
-        <v>0.054444701114855221</v>
+        <v>0.088359199060381144</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.047444701206400985</v>
+        <v>-0.081359199151328276</v>
       </c>
       <c r="B29" s="0">
-        <v>0.047382727570846939</v>
+        <v>0.081172204449636354</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.012617271985005285</v>
+        <v>-0.021172204833151742</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.012646046806978006</v>
+        <v>0.021023476271128771</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022141626156781</v>
+        <v>-0.014023476368576482</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001061708441398</v>
+        <v>0.01400121601981752</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040010618217571903</v>
+        <v>-0.0040012161340090557</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999261723929</v>
+        <v>0.0039999999183280011</v>
       </c>
     </row>
   </sheetData>
